--- a/Documentación/Empresa/Gastos.xlsx
+++ b/Documentación/Empresa/Gastos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miriam\Documents\GitHub\dta-agricola\Documentación\Empresa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L03502024\Documents\GitHub\dta-agricola\Documentación\Empresa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0ACBD763-9B22-44FB-94EC-86862FF3C3B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2282A04F-1220-4D56-9DB7-FA7BD641265C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E9092C9A-BF87-4F07-985E-BAA3ABFF703C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E9092C9A-BF87-4F07-985E-BAA3ABFF703C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +94,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -127,10 +137,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -138,8 +149,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -455,15 +470,17 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="49" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,159 +494,159 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="5">
         <v>25000</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="5">
         <f>B2*C2</f>
         <v>25000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="6">
         <v>50000</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="6">
         <f>B3*C3</f>
         <v>100000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <f>129*21</f>
         <v>2709</v>
       </c>
       <c r="C4">
         <v>24</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
         <f>B4*C4</f>
         <v>65016</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="6">
         <f>200*21</f>
         <v>4200</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="6">
         <f>B5*C5</f>
         <v>8400</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5">
         <v>3500</v>
       </c>
       <c r="C6">
         <v>48</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <f t="shared" ref="D6:D11" si="0">B6*C6</f>
         <v>168000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="6">
         <v>1000</v>
       </c>
       <c r="C7" s="3">
         <v>5</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="6">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5">
         <v>500</v>
       </c>
       <c r="C8">
         <v>10</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="6">
         <v>33000</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="6">
         <f t="shared" si="0"/>
         <v>33000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="5">
         <v>6000</v>
       </c>
       <c r="C10">
         <v>6</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="5">
         <f t="shared" si="0"/>
         <v>36000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="3">
+      <c r="D11" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="1">
+      <c r="D12" s="7">
         <f>SUM(D2:D11)</f>
         <v>445416</v>
       </c>
